--- a/data/pca/factorExposure/factorExposure_2011-11-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01007295002269993</v>
+        <v>0.01269426936767449</v>
       </c>
       <c r="C2">
-        <v>-0.03189328440239449</v>
+        <v>0.02088285352294325</v>
       </c>
       <c r="D2">
-        <v>0.01681379054679522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02490987120966719</v>
+      </c>
+      <c r="E2">
+        <v>-0.008490051272395707</v>
+      </c>
+      <c r="F2">
+        <v>-0.03136269985665944</v>
+      </c>
+      <c r="G2">
+        <v>0.002628076667318759</v>
+      </c>
+      <c r="H2">
+        <v>0.01999007164357988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0735383877494353</v>
+        <v>0.08794099785932025</v>
       </c>
       <c r="C4">
-        <v>-0.06262687426873539</v>
+        <v>0.02175027110370538</v>
       </c>
       <c r="D4">
-        <v>0.07081236280345325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08048643880415979</v>
+      </c>
+      <c r="E4">
+        <v>-0.01203281890268449</v>
+      </c>
+      <c r="F4">
+        <v>-0.04340900171697919</v>
+      </c>
+      <c r="G4">
+        <v>0.02044020314981085</v>
+      </c>
+      <c r="H4">
+        <v>-0.03709893074210008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1078620892194717</v>
+        <v>0.1220379613820203</v>
       </c>
       <c r="C6">
-        <v>-0.06151535734054273</v>
+        <v>0.04026949949498145</v>
       </c>
       <c r="D6">
-        <v>0.0001770444705352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02199267117968872</v>
+      </c>
+      <c r="E6">
+        <v>0.02154374361377135</v>
+      </c>
+      <c r="F6">
+        <v>-0.03920756635582102</v>
+      </c>
+      <c r="G6">
+        <v>0.04391983292414296</v>
+      </c>
+      <c r="H6">
+        <v>0.16473010678838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05584265326621285</v>
+        <v>0.06523549683613661</v>
       </c>
       <c r="C7">
-        <v>-0.03955848979235677</v>
+        <v>0.007966520712045093</v>
       </c>
       <c r="D7">
-        <v>0.02979587947675517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05630598842091797</v>
+      </c>
+      <c r="E7">
+        <v>-0.02742786009423822</v>
+      </c>
+      <c r="F7">
+        <v>-0.04566289894657189</v>
+      </c>
+      <c r="G7">
+        <v>-0.02606661082075005</v>
+      </c>
+      <c r="H7">
+        <v>-0.02358177474050956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04149172202711757</v>
+        <v>0.04437476439358163</v>
       </c>
       <c r="C8">
-        <v>-0.01790658537027448</v>
+        <v>0.002755049983838442</v>
       </c>
       <c r="D8">
-        <v>0.06135027614890699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03080505646386819</v>
+      </c>
+      <c r="E8">
+        <v>-0.007926250353022694</v>
+      </c>
+      <c r="F8">
+        <v>-0.07307257560377588</v>
+      </c>
+      <c r="G8">
+        <v>0.08556457734846534</v>
+      </c>
+      <c r="H8">
+        <v>0.007041315680663048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07118432496477999</v>
+        <v>0.0806866431693483</v>
       </c>
       <c r="C9">
-        <v>-0.049731981414347</v>
+        <v>0.01172309598253627</v>
       </c>
       <c r="D9">
-        <v>0.06616792586119855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07064173666948173</v>
+      </c>
+      <c r="E9">
+        <v>-0.02528388848038135</v>
+      </c>
+      <c r="F9">
+        <v>-0.0378977061465315</v>
+      </c>
+      <c r="G9">
+        <v>0.03086914751004849</v>
+      </c>
+      <c r="H9">
+        <v>-0.04130883354159172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02239097299863205</v>
+        <v>0.04927795610383941</v>
       </c>
       <c r="C10">
-        <v>-0.0157734519698906</v>
+        <v>0.1079760651660053</v>
       </c>
       <c r="D10">
-        <v>-0.1719059301219972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.159865809098002</v>
+      </c>
+      <c r="E10">
+        <v>-0.03001855927790522</v>
+      </c>
+      <c r="F10">
+        <v>-0.05964750755333986</v>
+      </c>
+      <c r="G10">
+        <v>-0.03423380537587351</v>
+      </c>
+      <c r="H10">
+        <v>0.04049016182218941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06738381861893654</v>
+        <v>0.07365662360483266</v>
       </c>
       <c r="C11">
-        <v>-0.04463101235268915</v>
+        <v>0.004543797818613702</v>
       </c>
       <c r="D11">
-        <v>0.05744731621840384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0652057226821451</v>
+      </c>
+      <c r="E11">
+        <v>-0.004079361875298755</v>
+      </c>
+      <c r="F11">
+        <v>-0.03614501051536403</v>
+      </c>
+      <c r="G11">
+        <v>0.04387518301731316</v>
+      </c>
+      <c r="H11">
+        <v>-0.06290023524026216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05838742835676226</v>
+        <v>0.06710913210136896</v>
       </c>
       <c r="C12">
-        <v>-0.05459368457843961</v>
+        <v>0.01747414904337333</v>
       </c>
       <c r="D12">
-        <v>0.04545926400911952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05840524053403952</v>
+      </c>
+      <c r="E12">
+        <v>-0.01114249432999818</v>
+      </c>
+      <c r="F12">
+        <v>-0.02462831321363412</v>
+      </c>
+      <c r="G12">
+        <v>0.02034463292147061</v>
+      </c>
+      <c r="H12">
+        <v>-0.02739567962406997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06893238718653102</v>
+        <v>0.06982344452940718</v>
       </c>
       <c r="C13">
-        <v>-0.05145388196182601</v>
+        <v>0.01690012397343968</v>
       </c>
       <c r="D13">
-        <v>0.03421577414120751</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04663307411169473</v>
+      </c>
+      <c r="E13">
+        <v>-0.007723187915018147</v>
+      </c>
+      <c r="F13">
+        <v>-0.02081221670188472</v>
+      </c>
+      <c r="G13">
+        <v>0.02174133260124146</v>
+      </c>
+      <c r="H13">
+        <v>-0.04935071927728382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02950431923921402</v>
+        <v>0.03907009604888328</v>
       </c>
       <c r="C14">
-        <v>-0.03160843785228542</v>
+        <v>0.02432348062878487</v>
       </c>
       <c r="D14">
-        <v>-0.006971693558465787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02082974671460325</v>
+      </c>
+      <c r="E14">
+        <v>-0.0271483498282818</v>
+      </c>
+      <c r="F14">
+        <v>-0.01639796453128081</v>
+      </c>
+      <c r="G14">
+        <v>0.01562414039255473</v>
+      </c>
+      <c r="H14">
+        <v>-0.06676456384060354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04122829186736027</v>
+        <v>0.03948860136275665</v>
       </c>
       <c r="C15">
-        <v>-0.01476338856127612</v>
+        <v>0.001412669253976387</v>
       </c>
       <c r="D15">
-        <v>0.02110070862732145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01214487553664011</v>
+      </c>
+      <c r="E15">
+        <v>-0.03266815836966563</v>
+      </c>
+      <c r="F15">
+        <v>-0.004204227156550472</v>
+      </c>
+      <c r="G15">
+        <v>0.03078162511480422</v>
+      </c>
+      <c r="H15">
+        <v>-0.03210658805503592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05699068017134829</v>
+        <v>0.06969209360693608</v>
       </c>
       <c r="C16">
-        <v>-0.04156318557992839</v>
+        <v>0.007270068443314212</v>
       </c>
       <c r="D16">
-        <v>0.05489497942337128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06605847102454644</v>
+      </c>
+      <c r="E16">
+        <v>-0.007215685977252219</v>
+      </c>
+      <c r="F16">
+        <v>-0.03074243193499396</v>
+      </c>
+      <c r="G16">
+        <v>0.01752832762271924</v>
+      </c>
+      <c r="H16">
+        <v>-0.0460541335858395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06346303487609964</v>
+        <v>0.06308984615926219</v>
       </c>
       <c r="C20">
-        <v>-0.03248747959674099</v>
+        <v>-0.0005433635160841509</v>
       </c>
       <c r="D20">
-        <v>0.04495834125593317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.043142308734112</v>
+      </c>
+      <c r="E20">
+        <v>-0.007140399495682057</v>
+      </c>
+      <c r="F20">
+        <v>-0.02659848350252757</v>
+      </c>
+      <c r="G20">
+        <v>0.01911352356936798</v>
+      </c>
+      <c r="H20">
+        <v>-0.04402654041395547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03238348921337524</v>
+        <v>0.0279805282016977</v>
       </c>
       <c r="C21">
-        <v>-0.00804941878009648</v>
+        <v>-0.008957536112304003</v>
       </c>
       <c r="D21">
-        <v>0.01085333706984591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01893922109294877</v>
+      </c>
+      <c r="E21">
+        <v>-0.03980423263332292</v>
+      </c>
+      <c r="F21">
+        <v>0.0136617525985149</v>
+      </c>
+      <c r="G21">
+        <v>0.008314689580697872</v>
+      </c>
+      <c r="H21">
+        <v>0.03794982011797061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08259217723942212</v>
+        <v>0.07428871352271985</v>
       </c>
       <c r="C22">
-        <v>-0.08073813891331531</v>
+        <v>0.01707671363602126</v>
       </c>
       <c r="D22">
-        <v>0.1262348199686585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1036711662639875</v>
+      </c>
+      <c r="E22">
+        <v>-0.6012933828600839</v>
+      </c>
+      <c r="F22">
+        <v>0.04175001222445406</v>
+      </c>
+      <c r="G22">
+        <v>-0.1835213289336475</v>
+      </c>
+      <c r="H22">
+        <v>0.1494245593880121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08365286660145728</v>
+        <v>0.07520244211757068</v>
       </c>
       <c r="C23">
-        <v>-0.0791743037732887</v>
+        <v>0.01534092221892438</v>
       </c>
       <c r="D23">
-        <v>0.127670488409109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1042981540500832</v>
+      </c>
+      <c r="E23">
+        <v>-0.6036284139670999</v>
+      </c>
+      <c r="F23">
+        <v>0.04111949564673092</v>
+      </c>
+      <c r="G23">
+        <v>-0.178142265544638</v>
+      </c>
+      <c r="H23">
+        <v>0.1450035636270382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07282105547653796</v>
+        <v>0.07922620453117776</v>
       </c>
       <c r="C24">
-        <v>-0.05326733704017352</v>
+        <v>0.01169942417151148</v>
       </c>
       <c r="D24">
-        <v>0.05934736925802837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06633890160584187</v>
+      </c>
+      <c r="E24">
+        <v>-0.01395792589121704</v>
+      </c>
+      <c r="F24">
+        <v>-0.03789074822704131</v>
+      </c>
+      <c r="G24">
+        <v>0.03781773299180749</v>
+      </c>
+      <c r="H24">
+        <v>-0.03061139305054436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07192618233799873</v>
+        <v>0.0784667012316278</v>
       </c>
       <c r="C25">
-        <v>-0.05669618075065912</v>
+        <v>0.01820974592733344</v>
       </c>
       <c r="D25">
-        <v>0.05667304621087008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06036261873386992</v>
+      </c>
+      <c r="E25">
+        <v>-0.01813690051550409</v>
+      </c>
+      <c r="F25">
+        <v>-0.03479262931366889</v>
+      </c>
+      <c r="G25">
+        <v>0.04252531067476869</v>
+      </c>
+      <c r="H25">
+        <v>-0.03967144651875292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04391474666548932</v>
+        <v>0.04476453762719063</v>
       </c>
       <c r="C26">
-        <v>-0.01623541287628833</v>
+        <v>-0.00060802000885515</v>
       </c>
       <c r="D26">
-        <v>0.01101761736117893</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0198893642815949</v>
+      </c>
+      <c r="E26">
+        <v>-0.04635055335207927</v>
+      </c>
+      <c r="F26">
+        <v>-0.02743104050482353</v>
+      </c>
+      <c r="G26">
+        <v>0.02741369902475943</v>
+      </c>
+      <c r="H26">
+        <v>-0.04694238204419195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03748134994004226</v>
+        <v>0.06901783627022916</v>
       </c>
       <c r="C28">
-        <v>-0.04863326152483993</v>
+        <v>0.1823927715708348</v>
       </c>
       <c r="D28">
-        <v>-0.3141574350217308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2626344815973941</v>
+      </c>
+      <c r="E28">
+        <v>-0.03359983644113683</v>
+      </c>
+      <c r="F28">
+        <v>-0.05274366040298149</v>
+      </c>
+      <c r="G28">
+        <v>0.02588074862913533</v>
+      </c>
+      <c r="H28">
+        <v>0.05649378876991341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04297766375224617</v>
+        <v>0.04795095242811518</v>
       </c>
       <c r="C29">
-        <v>-0.0421223737221075</v>
+        <v>0.02796890596885008</v>
       </c>
       <c r="D29">
-        <v>-0.003131310736860072</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02247525921121227</v>
+      </c>
+      <c r="E29">
+        <v>-0.05268671654343141</v>
+      </c>
+      <c r="F29">
+        <v>-0.02013128196657783</v>
+      </c>
+      <c r="G29">
+        <v>0.003195703842455677</v>
+      </c>
+      <c r="H29">
+        <v>-0.08826050849349412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1318859171555139</v>
+        <v>0.1279480407559415</v>
       </c>
       <c r="C30">
-        <v>-0.1060704137646831</v>
+        <v>0.03642790130725983</v>
       </c>
       <c r="D30">
-        <v>0.1022883231098202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09675474689667871</v>
+      </c>
+      <c r="E30">
+        <v>-0.05454627966445044</v>
+      </c>
+      <c r="F30">
+        <v>-0.01736095252471777</v>
+      </c>
+      <c r="G30">
+        <v>0.07509111467467605</v>
+      </c>
+      <c r="H30">
+        <v>0.04585024483969913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04917057514058652</v>
+        <v>0.04926883600970225</v>
       </c>
       <c r="C31">
-        <v>-0.02606133200997007</v>
+        <v>3.387648032517744e-05</v>
       </c>
       <c r="D31">
-        <v>0.01757743257443573</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03647445506717387</v>
+      </c>
+      <c r="E31">
+        <v>-0.02268023185261279</v>
+      </c>
+      <c r="F31">
+        <v>-0.01007235604077228</v>
+      </c>
+      <c r="G31">
+        <v>-0.004659952088187667</v>
+      </c>
+      <c r="H31">
+        <v>-0.06471749838217022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03578157285051397</v>
+        <v>0.03855358568478771</v>
       </c>
       <c r="C32">
-        <v>-0.0263392775728286</v>
+        <v>0.01894140503420222</v>
       </c>
       <c r="D32">
-        <v>0.02926807619826147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0147743942830194</v>
+      </c>
+      <c r="E32">
+        <v>-0.04557500107685577</v>
+      </c>
+      <c r="F32">
+        <v>0.002750582527932251</v>
+      </c>
+      <c r="G32">
+        <v>0.04752863513434558</v>
+      </c>
+      <c r="H32">
+        <v>-0.003684599828123521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08414364623786415</v>
+        <v>0.09327471587531856</v>
       </c>
       <c r="C33">
-        <v>-0.04784026144053961</v>
+        <v>0.009567010752545234</v>
       </c>
       <c r="D33">
-        <v>0.04721816256034817</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05592250922270216</v>
+      </c>
+      <c r="E33">
+        <v>-0.01395092797219395</v>
+      </c>
+      <c r="F33">
+        <v>-0.002073159609919289</v>
+      </c>
+      <c r="G33">
+        <v>0.006171775972184701</v>
+      </c>
+      <c r="H33">
+        <v>-0.06214961573084745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05835220296847485</v>
+        <v>0.06689007108392624</v>
       </c>
       <c r="C34">
-        <v>-0.02973276951000591</v>
+        <v>0.0003116173526690537</v>
       </c>
       <c r="D34">
-        <v>0.05202631125541238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04873253774867672</v>
+      </c>
+      <c r="E34">
+        <v>-0.01459083688798001</v>
+      </c>
+      <c r="F34">
+        <v>-0.02034914348892226</v>
+      </c>
+      <c r="G34">
+        <v>0.02549014815458575</v>
+      </c>
+      <c r="H34">
+        <v>-0.04995228309884334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03558136918297949</v>
+        <v>0.03723443384829683</v>
       </c>
       <c r="C35">
-        <v>-0.01622153149784839</v>
+        <v>0.002271596314124249</v>
       </c>
       <c r="D35">
-        <v>0.019306044923792</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01998592056363129</v>
+      </c>
+      <c r="E35">
+        <v>-0.02189006946558542</v>
+      </c>
+      <c r="F35">
+        <v>0.01513842850687472</v>
+      </c>
+      <c r="G35">
+        <v>-0.004617167993065011</v>
+      </c>
+      <c r="H35">
+        <v>-0.03525358842214869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02638939210374706</v>
+        <v>0.0280867728233131</v>
       </c>
       <c r="C36">
-        <v>-0.02142496650002566</v>
+        <v>0.007795271141237562</v>
       </c>
       <c r="D36">
-        <v>0.01907286784029132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02178642639975554</v>
+      </c>
+      <c r="E36">
+        <v>-0.03410362842982603</v>
+      </c>
+      <c r="F36">
+        <v>-0.02736361775417052</v>
+      </c>
+      <c r="G36">
+        <v>0.01327817820932293</v>
+      </c>
+      <c r="H36">
+        <v>-0.04116952467202695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05075013410925668</v>
+        <v>0.04838180004825735</v>
       </c>
       <c r="C38">
-        <v>-0.01279237369946049</v>
+        <v>-0.007719340241908984</v>
       </c>
       <c r="D38">
-        <v>0.003427803326759594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02095454348252493</v>
+      </c>
+      <c r="E38">
+        <v>-0.04962220207526499</v>
+      </c>
+      <c r="F38">
+        <v>0.0007610325134729864</v>
+      </c>
+      <c r="G38">
+        <v>0.002207644095871133</v>
+      </c>
+      <c r="H38">
+        <v>-0.02870642306652574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08998985589632898</v>
+        <v>0.1001335342096883</v>
       </c>
       <c r="C39">
-        <v>-0.07872323461557855</v>
+        <v>0.03213928134369554</v>
       </c>
       <c r="D39">
-        <v>0.0467690451187982</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07643547519949914</v>
+      </c>
+      <c r="E39">
+        <v>-0.003221010793128196</v>
+      </c>
+      <c r="F39">
+        <v>-0.004211150999909614</v>
+      </c>
+      <c r="G39">
+        <v>0.05058078520064153</v>
+      </c>
+      <c r="H39">
+        <v>-0.02359864550004283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08016541892703866</v>
+        <v>0.06038445630810067</v>
       </c>
       <c r="C40">
-        <v>-0.0414296517177485</v>
+        <v>-0.008131811808648269</v>
       </c>
       <c r="D40">
-        <v>0.01107184406092737</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03550382112493817</v>
+      </c>
+      <c r="E40">
+        <v>-0.03918521155383103</v>
+      </c>
+      <c r="F40">
+        <v>0.03805298868601105</v>
+      </c>
+      <c r="G40">
+        <v>0.06064247107396641</v>
+      </c>
+      <c r="H40">
+        <v>0.08297979912035258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04431928660264899</v>
+        <v>0.04606345354888672</v>
       </c>
       <c r="C41">
-        <v>-0.01929157560629205</v>
+        <v>-0.005276210063915781</v>
       </c>
       <c r="D41">
-        <v>0.03162217682252343</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03373420601393321</v>
+      </c>
+      <c r="E41">
+        <v>-0.001057468320889832</v>
+      </c>
+      <c r="F41">
+        <v>0.01321121627068758</v>
+      </c>
+      <c r="G41">
+        <v>0.005852386665361319</v>
+      </c>
+      <c r="H41">
+        <v>-0.03277017336706621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05387351892019254</v>
+        <v>0.05996216554718611</v>
       </c>
       <c r="C43">
-        <v>-0.03208576476051975</v>
+        <v>0.009027839361204722</v>
       </c>
       <c r="D43">
-        <v>0.006561618748864305</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03436832601716733</v>
+      </c>
+      <c r="E43">
+        <v>-0.01998314694452535</v>
+      </c>
+      <c r="F43">
+        <v>-0.01239060388938567</v>
+      </c>
+      <c r="G43">
+        <v>-0.02010081976039079</v>
+      </c>
+      <c r="H43">
+        <v>-0.0586075967196886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09612531665136578</v>
+        <v>0.09491047717817561</v>
       </c>
       <c r="C44">
-        <v>-0.03629870900306124</v>
+        <v>-0.005109340221891966</v>
       </c>
       <c r="D44">
-        <v>0.04816103949929451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05420758977268306</v>
+      </c>
+      <c r="E44">
+        <v>-0.08018715101526773</v>
+      </c>
+      <c r="F44">
+        <v>-0.08207940077654956</v>
+      </c>
+      <c r="G44">
+        <v>0.06995447298949259</v>
+      </c>
+      <c r="H44">
+        <v>-0.05068518641130435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02576093741342353</v>
+        <v>0.03823016380587949</v>
       </c>
       <c r="C46">
-        <v>-0.02360256532499297</v>
+        <v>0.01073882219314806</v>
       </c>
       <c r="D46">
-        <v>0.03031682529454383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03862896807141868</v>
+      </c>
+      <c r="E46">
+        <v>-0.03186777085483748</v>
+      </c>
+      <c r="F46">
+        <v>-0.01580726106101036</v>
+      </c>
+      <c r="G46">
+        <v>-0.005121588663133812</v>
+      </c>
+      <c r="H46">
+        <v>-0.03630369403969456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03209960455412608</v>
+        <v>0.0405846522812152</v>
       </c>
       <c r="C47">
-        <v>-0.02166075468192575</v>
+        <v>0.01412960810649634</v>
       </c>
       <c r="D47">
-        <v>-0.005108842153801332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01379464254749657</v>
+      </c>
+      <c r="E47">
+        <v>-0.04261381814891042</v>
+      </c>
+      <c r="F47">
+        <v>0.007733741261548567</v>
+      </c>
+      <c r="G47">
+        <v>-0.03613776623009635</v>
+      </c>
+      <c r="H47">
+        <v>-0.02454661194243392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03704674632813869</v>
+        <v>0.03996746837588946</v>
       </c>
       <c r="C48">
-        <v>-0.03032908067798876</v>
+        <v>0.01141143974483453</v>
       </c>
       <c r="D48">
-        <v>0.02776564042564339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02465595535214619</v>
+      </c>
+      <c r="E48">
+        <v>-0.04086669804441327</v>
+      </c>
+      <c r="F48">
+        <v>-0.007203736722656049</v>
+      </c>
+      <c r="G48">
+        <v>0.02155393619187827</v>
+      </c>
+      <c r="H48">
+        <v>-0.02349438859307021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1616174440010945</v>
+        <v>0.1968269012549082</v>
       </c>
       <c r="C49">
-        <v>-0.05539427735259542</v>
+        <v>0.02933486734332515</v>
       </c>
       <c r="D49">
-        <v>0.005556338364963623</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03421182652070173</v>
+      </c>
+      <c r="E49">
+        <v>0.1800263446569108</v>
+      </c>
+      <c r="F49">
+        <v>-0.03366080764966065</v>
+      </c>
+      <c r="G49">
+        <v>-0.1339308934865612</v>
+      </c>
+      <c r="H49">
+        <v>0.2363903383722533</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04503759511710616</v>
+        <v>0.04795406704428705</v>
       </c>
       <c r="C50">
-        <v>-0.03076792237829521</v>
+        <v>0.00691385017436343</v>
       </c>
       <c r="D50">
-        <v>0.02752679057644811</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03920848296715636</v>
+      </c>
+      <c r="E50">
+        <v>-0.02801037112513233</v>
+      </c>
+      <c r="F50">
+        <v>-0.005765730737451885</v>
+      </c>
+      <c r="G50">
+        <v>0.0008438906708854248</v>
+      </c>
+      <c r="H50">
+        <v>-0.07269108032645574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02412195452851354</v>
+        <v>0.03346639585259819</v>
       </c>
       <c r="C51">
-        <v>-0.003911999715046052</v>
+        <v>0.002891166020838542</v>
       </c>
       <c r="D51">
-        <v>-0.003397797597828794</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002603510426616551</v>
+      </c>
+      <c r="E51">
+        <v>-0.005621852100379197</v>
+      </c>
+      <c r="F51">
+        <v>-0.0111503244380278</v>
+      </c>
+      <c r="G51">
+        <v>-0.02026134251654675</v>
+      </c>
+      <c r="H51">
+        <v>0.01636059956533065</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1514487297943502</v>
+        <v>0.1609995001919304</v>
       </c>
       <c r="C53">
-        <v>-0.08428344920963755</v>
+        <v>0.0457336077229817</v>
       </c>
       <c r="D53">
-        <v>-0.01143683237721824</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03450633784888405</v>
+      </c>
+      <c r="E53">
+        <v>0.03066664421588998</v>
+      </c>
+      <c r="F53">
+        <v>-0.0002509156710413764</v>
+      </c>
+      <c r="G53">
+        <v>-0.01253799730780222</v>
+      </c>
+      <c r="H53">
+        <v>-0.1959624430319824</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05857091983662339</v>
+        <v>0.06012725901282521</v>
       </c>
       <c r="C54">
-        <v>-0.03435441191816727</v>
+        <v>0.01828464419381538</v>
       </c>
       <c r="D54">
-        <v>0.01692841282113683</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01804378368942205</v>
+      </c>
+      <c r="E54">
+        <v>-0.05753317507917861</v>
+      </c>
+      <c r="F54">
+        <v>-0.01856962765649398</v>
+      </c>
+      <c r="G54">
+        <v>0.05339160996734953</v>
+      </c>
+      <c r="H54">
+        <v>-0.0463160123631861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09833383468806627</v>
+        <v>0.100707301271407</v>
       </c>
       <c r="C55">
-        <v>-0.0551074129484144</v>
+        <v>0.02183665634360223</v>
       </c>
       <c r="D55">
-        <v>0.006349851036309018</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03514864950529507</v>
+      </c>
+      <c r="E55">
+        <v>0.002781117716735788</v>
+      </c>
+      <c r="F55">
+        <v>-0.02005300445242049</v>
+      </c>
+      <c r="G55">
+        <v>0.009705306201568766</v>
+      </c>
+      <c r="H55">
+        <v>-0.1516300249456237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1477416185884048</v>
+        <v>0.1548677202628442</v>
       </c>
       <c r="C56">
-        <v>-0.08513989471672077</v>
+        <v>0.03527289479225188</v>
       </c>
       <c r="D56">
-        <v>-0.006606228927333573</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05303341022227197</v>
+      </c>
+      <c r="E56">
+        <v>0.01122997039694791</v>
+      </c>
+      <c r="F56">
+        <v>-0.02165011098272511</v>
+      </c>
+      <c r="G56">
+        <v>-0.004357990255615665</v>
+      </c>
+      <c r="H56">
+        <v>-0.2006674457636067</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.132229978125856</v>
+        <v>0.09835622621099011</v>
       </c>
       <c r="C58">
-        <v>0.01932663676887572</v>
+        <v>-0.07437058055860152</v>
       </c>
       <c r="D58">
-        <v>0.04859194901358493</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.009747647243304011</v>
+      </c>
+      <c r="E58">
+        <v>-0.123508802826533</v>
+      </c>
+      <c r="F58">
+        <v>-0.03095662637825004</v>
+      </c>
+      <c r="G58">
+        <v>-0.08536036109587876</v>
+      </c>
+      <c r="H58">
+        <v>0.2095800917032429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1118469234545071</v>
+        <v>0.1463464523096553</v>
       </c>
       <c r="C59">
-        <v>-0.0607446258522528</v>
+        <v>0.2014045091809722</v>
       </c>
       <c r="D59">
-        <v>-0.4137244920378509</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3098815059697862</v>
+      </c>
+      <c r="E59">
+        <v>-0.02570033371058347</v>
+      </c>
+      <c r="F59">
+        <v>-0.005616662643080876</v>
+      </c>
+      <c r="G59">
+        <v>0.005513107093279029</v>
+      </c>
+      <c r="H59">
+        <v>-0.01664040587556726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2052600887496459</v>
+        <v>0.2365109130925141</v>
       </c>
       <c r="C60">
-        <v>-0.1032074649681373</v>
+        <v>0.05269591624181411</v>
       </c>
       <c r="D60">
-        <v>-0.001517958286554817</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.06062516260084722</v>
+      </c>
+      <c r="E60">
+        <v>0.126317698345066</v>
+      </c>
+      <c r="F60">
+        <v>-0.04320905747992444</v>
+      </c>
+      <c r="G60">
+        <v>-0.01982228470809025</v>
+      </c>
+      <c r="H60">
+        <v>0.1497435952647696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07735697732638984</v>
+        <v>0.08500529790621253</v>
       </c>
       <c r="C61">
-        <v>-0.05028304614609506</v>
+        <v>0.01742293813340755</v>
       </c>
       <c r="D61">
-        <v>0.03020019506566551</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05110043336128793</v>
+      </c>
+      <c r="E61">
+        <v>-0.00877682069862553</v>
+      </c>
+      <c r="F61">
+        <v>-0.01447775386849945</v>
+      </c>
+      <c r="G61">
+        <v>0.03040833172350856</v>
+      </c>
+      <c r="H61">
+        <v>-0.06743936873013696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1306606748305005</v>
+        <v>0.1370593617425343</v>
       </c>
       <c r="C62">
-        <v>-0.05354399635698683</v>
+        <v>0.01076905884335644</v>
       </c>
       <c r="D62">
-        <v>-0.008351205842372054</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04444172531048745</v>
+      </c>
+      <c r="E62">
+        <v>0.03816728522812655</v>
+      </c>
+      <c r="F62">
+        <v>0.02455448387327062</v>
+      </c>
+      <c r="G62">
+        <v>0.02393175147244358</v>
+      </c>
+      <c r="H62">
+        <v>-0.1975158877915516</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05029882303147777</v>
+        <v>0.04866925954276804</v>
       </c>
       <c r="C63">
-        <v>-0.02770997333132066</v>
+        <v>0.007408435439119537</v>
       </c>
       <c r="D63">
-        <v>0.02258310146131415</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02583671325780574</v>
+      </c>
+      <c r="E63">
+        <v>-0.03941772409976343</v>
+      </c>
+      <c r="F63">
+        <v>-0.0007865009443304021</v>
+      </c>
+      <c r="G63">
+        <v>0.03745639402602462</v>
+      </c>
+      <c r="H63">
+        <v>-0.03860432994233969</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1061881072995897</v>
+        <v>0.1108588412072987</v>
       </c>
       <c r="C64">
-        <v>-0.04450987537586507</v>
+        <v>0.01653506877997414</v>
       </c>
       <c r="D64">
-        <v>0.01505202605574454</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03016196863069652</v>
+      </c>
+      <c r="E64">
+        <v>-0.04379005220711905</v>
+      </c>
+      <c r="F64">
+        <v>-0.04852240538176948</v>
+      </c>
+      <c r="G64">
+        <v>0.05562834511550181</v>
+      </c>
+      <c r="H64">
+        <v>-0.02434481614096553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1242020831471086</v>
+        <v>0.1310506622267429</v>
       </c>
       <c r="C65">
-        <v>-0.06801172218640203</v>
+        <v>0.04500433195539123</v>
       </c>
       <c r="D65">
-        <v>0.005004030240575471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0234033015184008</v>
+      </c>
+      <c r="E65">
+        <v>0.0009942294496542556</v>
+      </c>
+      <c r="F65">
+        <v>-0.02556721178352697</v>
+      </c>
+      <c r="G65">
+        <v>0.06850363038774274</v>
+      </c>
+      <c r="H65">
+        <v>0.1920417502433664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1490021487266683</v>
+        <v>0.1520666782784091</v>
       </c>
       <c r="C66">
-        <v>-0.09164624986297211</v>
+        <v>0.01554960528871894</v>
       </c>
       <c r="D66">
-        <v>0.0902887954102783</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1128516601158258</v>
+      </c>
+      <c r="E66">
+        <v>0.02293512016721005</v>
+      </c>
+      <c r="F66">
+        <v>-0.005310690657882042</v>
+      </c>
+      <c r="G66">
+        <v>0.07281897458425923</v>
+      </c>
+      <c r="H66">
+        <v>-0.08727626331464726</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07900760866567062</v>
+        <v>0.08657301353077865</v>
       </c>
       <c r="C67">
-        <v>-0.02041831833484082</v>
+        <v>-0.005164657634152625</v>
       </c>
       <c r="D67">
-        <v>0.01314926417567333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03382023318852818</v>
+      </c>
+      <c r="E67">
+        <v>-0.01835140763096431</v>
+      </c>
+      <c r="F67">
+        <v>-0.01570889756755861</v>
+      </c>
+      <c r="G67">
+        <v>-0.01250191647767522</v>
+      </c>
+      <c r="H67">
+        <v>-0.02703140209905571</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04617232615293653</v>
+        <v>0.06359824853383687</v>
       </c>
       <c r="C68">
-        <v>-0.03275900097491785</v>
+        <v>0.1502617910540228</v>
       </c>
       <c r="D68">
-        <v>-0.2637957494270611</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2385728883212596</v>
+      </c>
+      <c r="E68">
+        <v>-0.04454884700174303</v>
+      </c>
+      <c r="F68">
+        <v>-0.009926558123853414</v>
+      </c>
+      <c r="G68">
+        <v>-0.001378821681176865</v>
+      </c>
+      <c r="H68">
+        <v>-0.0123190579775902</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05402243629915714</v>
+        <v>0.05236589640113638</v>
       </c>
       <c r="C69">
-        <v>-0.02402497511993226</v>
+        <v>0.0008345237625954267</v>
       </c>
       <c r="D69">
-        <v>0.01839721576057528</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02217895888071142</v>
+      </c>
+      <c r="E69">
+        <v>-0.02270442470060809</v>
+      </c>
+      <c r="F69">
+        <v>0.01290828150477407</v>
+      </c>
+      <c r="G69">
+        <v>-0.003356774004597204</v>
+      </c>
+      <c r="H69">
+        <v>-0.04417499451713645</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.007250591083942807</v>
+        <v>0.03096750572335302</v>
       </c>
       <c r="C70">
-        <v>0.004319306983634088</v>
+        <v>0.003047367082875463</v>
       </c>
       <c r="D70">
-        <v>-0.0101059058393145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006436886572579447</v>
+      </c>
+      <c r="E70">
+        <v>0.02437963218827938</v>
+      </c>
+      <c r="F70">
+        <v>0.007744321672301665</v>
+      </c>
+      <c r="G70">
+        <v>-0.02691817990843186</v>
+      </c>
+      <c r="H70">
+        <v>0.02141800790048048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0434637096530982</v>
+        <v>0.06929092666882332</v>
       </c>
       <c r="C71">
-        <v>-0.03170777042766417</v>
+        <v>0.1661643688705394</v>
       </c>
       <c r="D71">
-        <v>-0.2954993260925209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2593623640741528</v>
+      </c>
+      <c r="E71">
+        <v>-0.03966936461317638</v>
+      </c>
+      <c r="F71">
+        <v>-0.03928487602892338</v>
+      </c>
+      <c r="G71">
+        <v>-0.001193544885345434</v>
+      </c>
+      <c r="H71">
+        <v>-0.01223464341117039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.137137777130065</v>
+        <v>0.1419373771545949</v>
       </c>
       <c r="C72">
-        <v>-0.06150698463247906</v>
+        <v>0.03001734279356614</v>
       </c>
       <c r="D72">
-        <v>-0.01665667217249274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01005919660204991</v>
+      </c>
+      <c r="E72">
+        <v>0.03968534724224704</v>
+      </c>
+      <c r="F72">
+        <v>0.1647585748418417</v>
+      </c>
+      <c r="G72">
+        <v>0.1096369116177554</v>
+      </c>
+      <c r="H72">
+        <v>0.004260539960648453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2823146290128652</v>
+        <v>0.2832106082947848</v>
       </c>
       <c r="C73">
-        <v>-0.09846893204317707</v>
+        <v>-0.01076847023245409</v>
       </c>
       <c r="D73">
-        <v>0.04095905752825436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09793207802120393</v>
+      </c>
+      <c r="E73">
+        <v>0.2827229507345607</v>
+      </c>
+      <c r="F73">
+        <v>-0.05923872170573443</v>
+      </c>
+      <c r="G73">
+        <v>-0.2388775395265819</v>
+      </c>
+      <c r="H73">
+        <v>0.4070022689470636</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07717287178471006</v>
+        <v>0.08902370710097611</v>
       </c>
       <c r="C74">
-        <v>-0.07465919977611878</v>
+        <v>0.03920598072135258</v>
       </c>
       <c r="D74">
-        <v>0.002630774785847661</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05487727057948331</v>
+      </c>
+      <c r="E74">
+        <v>0.007286992970935804</v>
+      </c>
+      <c r="F74">
+        <v>-0.001582828284650916</v>
+      </c>
+      <c r="G74">
+        <v>-0.03948207275849347</v>
+      </c>
+      <c r="H74">
+        <v>-0.1261750199227236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1001573506429151</v>
+        <v>0.1021818130842539</v>
       </c>
       <c r="C75">
-        <v>-0.05427938000352758</v>
+        <v>0.01441724447565676</v>
       </c>
       <c r="D75">
-        <v>-0.0002926802959291003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03146670820726719</v>
+      </c>
+      <c r="E75">
+        <v>0.0009324872106082335</v>
+      </c>
+      <c r="F75">
+        <v>-0.001243615300011897</v>
+      </c>
+      <c r="G75">
+        <v>-0.01272843505078546</v>
+      </c>
+      <c r="H75">
+        <v>-0.1016846626704765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1264085338788835</v>
+        <v>0.1382002468773745</v>
       </c>
       <c r="C76">
-        <v>-0.07395685971381166</v>
+        <v>0.02820520498840109</v>
       </c>
       <c r="D76">
-        <v>0.01908565864537602</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06524254514325738</v>
+      </c>
+      <c r="E76">
+        <v>-0.01028806351552045</v>
+      </c>
+      <c r="F76">
+        <v>-0.03416760015255031</v>
+      </c>
+      <c r="G76">
+        <v>-0.00282179209652235</v>
+      </c>
+      <c r="H76">
+        <v>-0.2405766963020683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1187407526225795</v>
+        <v>0.09989820111397195</v>
       </c>
       <c r="C77">
-        <v>-0.03502500697253864</v>
+        <v>-0.01992066342446535</v>
       </c>
       <c r="D77">
-        <v>0.0730943721566395</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03909009131031715</v>
+      </c>
+      <c r="E77">
+        <v>-0.05799528494744894</v>
+      </c>
+      <c r="F77">
+        <v>-0.06705225758378001</v>
+      </c>
+      <c r="G77">
+        <v>0.8103473217946271</v>
+      </c>
+      <c r="H77">
+        <v>0.2653427173380445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1075070412405342</v>
+        <v>0.1502261147126429</v>
       </c>
       <c r="C78">
-        <v>-0.05046758372085591</v>
+        <v>0.02118145777751064</v>
       </c>
       <c r="D78">
-        <v>0.08114432292265977</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08759822680607098</v>
+      </c>
+      <c r="E78">
+        <v>-0.04844898356297785</v>
+      </c>
+      <c r="F78">
+        <v>-0.05723022355895025</v>
+      </c>
+      <c r="G78">
+        <v>0.03405087555912587</v>
+      </c>
+      <c r="H78">
+        <v>0.09765790024033251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1385424669949185</v>
+        <v>0.1437862303053122</v>
       </c>
       <c r="C79">
-        <v>-0.07103724330789106</v>
+        <v>0.0198609840945146</v>
       </c>
       <c r="D79">
-        <v>0.02511874907430877</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05469246644404052</v>
+      </c>
+      <c r="E79">
+        <v>0.01086712017863161</v>
+      </c>
+      <c r="F79">
+        <v>-0.01814174699458687</v>
+      </c>
+      <c r="G79">
+        <v>0.01447625287521847</v>
+      </c>
+      <c r="H79">
+        <v>-0.1706236843869514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04259664125077607</v>
+        <v>0.04287951973841453</v>
       </c>
       <c r="C80">
-        <v>-0.02305717261794631</v>
+        <v>0.006756980017287082</v>
       </c>
       <c r="D80">
-        <v>0.02655431755742844</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01851142451987384</v>
+      </c>
+      <c r="E80">
+        <v>0.04315982930376779</v>
+      </c>
+      <c r="F80">
+        <v>-0.005319560162687168</v>
+      </c>
+      <c r="G80">
+        <v>-0.013964224364393</v>
+      </c>
+      <c r="H80">
+        <v>-0.02958329989940185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1225652155670766</v>
+        <v>0.1265269798404177</v>
       </c>
       <c r="C81">
-        <v>-0.07334036089747922</v>
+        <v>0.03013731653184646</v>
       </c>
       <c r="D81">
-        <v>0.01227371290420624</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04056380330313074</v>
+      </c>
+      <c r="E81">
+        <v>-0.001093780597252961</v>
+      </c>
+      <c r="F81">
+        <v>-0.02590844101160249</v>
+      </c>
+      <c r="G81">
+        <v>-0.01073172368606952</v>
+      </c>
+      <c r="H81">
+        <v>-0.1569965154182501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1290374679350265</v>
+        <v>0.1316421464093569</v>
       </c>
       <c r="C82">
-        <v>-0.07085494107312806</v>
+        <v>0.02940055624588853</v>
       </c>
       <c r="D82">
-        <v>0.007777636328220042</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0430062940494363</v>
+      </c>
+      <c r="E82">
+        <v>0.02060232207435155</v>
+      </c>
+      <c r="F82">
+        <v>-0.03924961945691095</v>
+      </c>
+      <c r="G82">
+        <v>-0.01294565512304278</v>
+      </c>
+      <c r="H82">
+        <v>-0.2313617817786025</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06430416684018334</v>
+        <v>0.08047795707091178</v>
       </c>
       <c r="C83">
-        <v>0.02032549723300837</v>
+        <v>-0.03445719514167902</v>
       </c>
       <c r="D83">
-        <v>0.02553403677074827</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01273205400458543</v>
+      </c>
+      <c r="E83">
+        <v>-0.01354123928715047</v>
+      </c>
+      <c r="F83">
+        <v>-0.03111783152001489</v>
+      </c>
+      <c r="G83">
+        <v>-0.05003046504217166</v>
+      </c>
+      <c r="H83">
+        <v>0.01968025662994113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03185229732159219</v>
+        <v>0.03506449047619141</v>
       </c>
       <c r="C84">
-        <v>-0.04174181765266598</v>
+        <v>0.01180310777945301</v>
       </c>
       <c r="D84">
-        <v>0.03069488758416619</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04797042197441279</v>
+      </c>
+      <c r="E84">
+        <v>-0.02197315154800932</v>
+      </c>
+      <c r="F84">
+        <v>0.0398876325020428</v>
+      </c>
+      <c r="G84">
+        <v>-0.02758028777683096</v>
+      </c>
+      <c r="H84">
+        <v>-0.02180444007696928</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1155293121121162</v>
+        <v>0.1217397315513316</v>
       </c>
       <c r="C85">
-        <v>-0.04743256783927428</v>
+        <v>0.007209947898386917</v>
       </c>
       <c r="D85">
-        <v>0.04227969316294194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04565220250526559</v>
+      </c>
+      <c r="E85">
+        <v>-0.0108176742682731</v>
+      </c>
+      <c r="F85">
+        <v>-0.04042079399512295</v>
+      </c>
+      <c r="G85">
+        <v>-0.009038775095145394</v>
+      </c>
+      <c r="H85">
+        <v>-0.1430154563076402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04968240490743129</v>
+        <v>0.05202468555456941</v>
       </c>
       <c r="C86">
-        <v>-0.02848109609549375</v>
+        <v>-0.001899758266807705</v>
       </c>
       <c r="D86">
-        <v>0.07233282012404979</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04272908484408757</v>
+      </c>
+      <c r="E86">
+        <v>-0.03861462570664403</v>
+      </c>
+      <c r="F86">
+        <v>-0.02813928566616654</v>
+      </c>
+      <c r="G86">
+        <v>-0.02293152977111076</v>
+      </c>
+      <c r="H86">
+        <v>0.06097137731233025</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1198868132470915</v>
+        <v>0.1249147645232635</v>
       </c>
       <c r="C87">
-        <v>-0.08209609606786938</v>
+        <v>0.01774047696639451</v>
       </c>
       <c r="D87">
-        <v>0.06000200678626857</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08024044737132666</v>
+      </c>
+      <c r="E87">
+        <v>-0.02956353083622033</v>
+      </c>
+      <c r="F87">
+        <v>-0.0263164794366295</v>
+      </c>
+      <c r="G87">
+        <v>0.1500028555862336</v>
+      </c>
+      <c r="H87">
+        <v>0.06390326745988419</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05429386100549929</v>
+        <v>0.06287691062525901</v>
       </c>
       <c r="C88">
-        <v>-0.03778697394309755</v>
+        <v>0.01076114449573249</v>
       </c>
       <c r="D88">
-        <v>0.02511252754048765</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04772649890052331</v>
+      </c>
+      <c r="E88">
+        <v>-0.001444729873958555</v>
+      </c>
+      <c r="F88">
+        <v>-0.0228605755646014</v>
+      </c>
+      <c r="G88">
+        <v>0.008900098257979916</v>
+      </c>
+      <c r="H88">
+        <v>-0.04598786218067914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07314783618680668</v>
+        <v>0.1088829652917456</v>
       </c>
       <c r="C89">
-        <v>-0.0551211865530797</v>
+        <v>0.2091381923604331</v>
       </c>
       <c r="D89">
-        <v>-0.3244457788277942</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2998449527470571</v>
+      </c>
+      <c r="E89">
+        <v>-0.05041251451860252</v>
+      </c>
+      <c r="F89">
+        <v>-0.07232470219102839</v>
+      </c>
+      <c r="G89">
+        <v>-0.02847378935896506</v>
+      </c>
+      <c r="H89">
+        <v>-0.0213799578802109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05665943491045973</v>
+        <v>0.08216676912624005</v>
       </c>
       <c r="C90">
-        <v>-0.0382043728158383</v>
+        <v>0.1619322866656842</v>
       </c>
       <c r="D90">
-        <v>-0.2812726721558488</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2479620782917493</v>
+      </c>
+      <c r="E90">
+        <v>-0.05077235954475873</v>
+      </c>
+      <c r="F90">
+        <v>-0.02916213663874445</v>
+      </c>
+      <c r="G90">
+        <v>0.03556624209069675</v>
+      </c>
+      <c r="H90">
+        <v>0.02105006954141903</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09109762517606626</v>
+        <v>0.0904927178947047</v>
       </c>
       <c r="C91">
-        <v>-0.0567365495235394</v>
+        <v>0.01608350069741998</v>
       </c>
       <c r="D91">
-        <v>0.005126201789879408</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03927278508600415</v>
+      </c>
+      <c r="E91">
+        <v>-0.00374205673351235</v>
+      </c>
+      <c r="F91">
+        <v>-0.004474950356200942</v>
+      </c>
+      <c r="G91">
+        <v>-0.02444264904517863</v>
+      </c>
+      <c r="H91">
+        <v>-0.08600210107523573</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05770978912640104</v>
+        <v>0.0824664776493616</v>
       </c>
       <c r="C92">
-        <v>-0.04567865395550997</v>
+        <v>0.1866569192500143</v>
       </c>
       <c r="D92">
-        <v>-0.3334896668876685</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2852471648003948</v>
+      </c>
+      <c r="E92">
+        <v>-0.04452616871697999</v>
+      </c>
+      <c r="F92">
+        <v>-0.03834016054993038</v>
+      </c>
+      <c r="G92">
+        <v>0.003850197502608204</v>
+      </c>
+      <c r="H92">
+        <v>-0.02406187809808888</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05043882076180099</v>
+        <v>0.07956343309295635</v>
       </c>
       <c r="C93">
-        <v>-0.04539996677337194</v>
+        <v>0.1806497933723504</v>
       </c>
       <c r="D93">
-        <v>-0.3074816529677424</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2603391654664273</v>
+      </c>
+      <c r="E93">
+        <v>-0.01678365462356182</v>
+      </c>
+      <c r="F93">
+        <v>-0.02978258341711924</v>
+      </c>
+      <c r="G93">
+        <v>0.01900911479506522</v>
+      </c>
+      <c r="H93">
+        <v>-0.005301547157161887</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1285882600873934</v>
+        <v>0.1262533410931796</v>
       </c>
       <c r="C94">
-        <v>-0.04110771109915021</v>
+        <v>-0.008192349259452699</v>
       </c>
       <c r="D94">
-        <v>0.04158391313567742</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04562703070979045</v>
+      </c>
+      <c r="E94">
+        <v>0.02101248356834617</v>
+      </c>
+      <c r="F94">
+        <v>-0.01862279997099634</v>
+      </c>
+      <c r="G94">
+        <v>-0.04352200296502361</v>
+      </c>
+      <c r="H94">
+        <v>-0.1035619257996628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1185653831634782</v>
+        <v>0.130509072946404</v>
       </c>
       <c r="C95">
-        <v>-0.03738477468039927</v>
+        <v>-0.00842786882054072</v>
       </c>
       <c r="D95">
-        <v>0.05823804076457853</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06153633334929033</v>
+      </c>
+      <c r="E95">
+        <v>-0.01418830013938804</v>
+      </c>
+      <c r="F95">
+        <v>-0.05356365944230393</v>
+      </c>
+      <c r="G95">
+        <v>0.04893664442629466</v>
+      </c>
+      <c r="H95">
+        <v>0.09708945410699865</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2247839341726274</v>
+        <v>0.1933299357077256</v>
       </c>
       <c r="C97">
-        <v>-0.06080929188229538</v>
+        <v>0.005800338127236892</v>
       </c>
       <c r="D97">
-        <v>-0.1224155058191586</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05785834013864775</v>
+      </c>
+      <c r="E97">
+        <v>0.03092404356579688</v>
+      </c>
+      <c r="F97">
+        <v>0.9377322836804981</v>
+      </c>
+      <c r="G97">
+        <v>0.05513629902935294</v>
+      </c>
+      <c r="H97">
+        <v>0.01179902692216861</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2402461156099539</v>
+        <v>0.2738571941268468</v>
       </c>
       <c r="C98">
-        <v>-0.06899054421691415</v>
+        <v>0.01353876829924084</v>
       </c>
       <c r="D98">
-        <v>0.008999064316521574</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04723730092840386</v>
+      </c>
+      <c r="E98">
+        <v>0.2180623672922919</v>
+      </c>
+      <c r="F98">
+        <v>-0.03716468428226431</v>
+      </c>
+      <c r="G98">
+        <v>-0.2797357562968365</v>
+      </c>
+      <c r="H98">
+        <v>0.1444031569747827</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4411298215296473</v>
+        <v>0.2798821094120788</v>
       </c>
       <c r="C99">
-        <v>0.8803924445755392</v>
+        <v>-0.8313774443310931</v>
       </c>
       <c r="D99">
-        <v>-0.01354816446812637</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.4385421687323747</v>
+      </c>
+      <c r="E99">
+        <v>-0.07464012417370608</v>
+      </c>
+      <c r="F99">
+        <v>-0.07405067964703424</v>
+      </c>
+      <c r="G99">
+        <v>0.006657584024283363</v>
+      </c>
+      <c r="H99">
+        <v>-0.0659555369243966</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04302159025091881</v>
+        <v>0.04801261218972697</v>
       </c>
       <c r="C101">
-        <v>-0.04243203700097407</v>
+        <v>0.02815464094115648</v>
       </c>
       <c r="D101">
-        <v>-0.002942638664148008</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02290820930078727</v>
+      </c>
+      <c r="E101">
+        <v>-0.05239152996995784</v>
+      </c>
+      <c r="F101">
+        <v>-0.02022898679739007</v>
+      </c>
+      <c r="G101">
+        <v>0.00206235468809594</v>
+      </c>
+      <c r="H101">
+        <v>-0.0869076628349757</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
